--- a/Notebook/test_predictions.xlsx
+++ b/Notebook/test_predictions.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5930028339214137</v>
+        <v>0.4950675998393542</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03862945036523002</v>
+        <v>0.2820094652443921</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -469,16 +469,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43 kg</t>
+          <t>0.74 kg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7670045868375276</v>
+        <v>0.2673521429663497</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3573822589441337</v>
+        <v>0.7978645787660736</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.74 m</t>
+          <t>0.07 m</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.6730774182230284</v>
+        <v>0.4293705201731576</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9722530284572363</v>
+        <v>0.03071198432221633</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,16 +505,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.49 s</t>
+          <t>0.26 s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9378435584244722</v>
+        <v>0.1208664613410838</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9347318444311322</v>
+        <v>0.2637986434737986</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -523,16 +523,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.14 kg</t>
+          <t>0.97 kg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2174812467316393</v>
+        <v>0.6760380784819947</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2455683125727423</v>
+        <v>0.2760476551413551</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -541,16 +541,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.01 m</t>
+          <t>0.66 m</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2061756516760264</v>
+        <v>0.2264163577299081</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2570787211794306</v>
+        <v>0.3974766231788076</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.55 s</t>
+          <t>0.80 s</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3899516506319116</v>
+        <v>0.05291919718924831</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9209138179483812</v>
+        <v>0.3507166082204496</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.41 kg</t>
+          <t>0.22 kg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3897205198419218</v>
+        <v>0.7484947743787634</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9410417098537123</v>
+        <v>0.7685729492082125</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.94 m</t>
+          <t>0.54 m</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.259469322076873</v>
+        <v>0.1590503151914212</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4573902941735987</v>
+        <v>0.06430911075032431</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -613,16 +613,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.81 s</t>
+          <t>0.72 s</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3919434370244006</v>
+        <v>0.3168091259590421</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9925376287753153</v>
+        <v>0.3192222867252765</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.00 kg</t>
+          <t>0.94 kg</t>
         </is>
       </c>
     </row>

--- a/Notebook/test_predictions.xlsx
+++ b/Notebook/test_predictions.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4950675998393542</v>
+        <v>0.5529180853221916</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2820094652443921</v>
+        <v>0.7487454672885028</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -469,16 +469,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.74 kg</t>
+          <t>0.04 kg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2673521429663497</v>
+        <v>0.1335786280372311</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7978645787660736</v>
+        <v>0.03174043896862278</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07 m</t>
+          <t>0.62 m</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4293705201731576</v>
+        <v>0.2954501743256129</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03071198432221633</v>
+        <v>0.2929036209470074</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -505,16 +505,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26 s</t>
+          <t>0.89 s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1208664613410838</v>
+        <v>0.9841629594824874</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2637986434737986</v>
+        <v>0.5050382855204163</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -523,16 +523,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.97 kg</t>
+          <t>0.24 kg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6760380784819947</v>
+        <v>0.34169449467949</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2760476551413551</v>
+        <v>0.3610893483886416</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -541,16 +541,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.66 m</t>
+          <t>0.42 m</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2264163577299081</v>
+        <v>0.1573223909138465</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3974766231788076</v>
+        <v>0.255362356422022</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.80 s</t>
+          <t>0.90 s</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.05291919718924831</v>
+        <v>0.5162312574005405</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3507166082204496</v>
+        <v>0.2629026026599942</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -577,16 +577,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.22 kg</t>
+          <t>0.74 kg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7484947743787634</v>
+        <v>0.6640112121036431</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7685729492082125</v>
+        <v>0.778029758226199</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -595,16 +595,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.54 m</t>
+          <t>0.79 m</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1590503151914212</v>
+        <v>0.8186113028540051</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06430911075032431</v>
+        <v>0.8877399993383253</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -613,16 +613,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.72 s</t>
+          <t>0.28 s</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3168091259590421</v>
+        <v>0.7862042345053427</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3192222867252765</v>
+        <v>0.6123959312026799</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.94 kg</t>
+          <t>0.49 kg</t>
         </is>
       </c>
     </row>
